--- a/#data/Location.xlsx
+++ b/#data/Location.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\E-IOC-Lemoco\#data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F908D7E-A6E2-42D9-A01B-73699BBC68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49739BED-07B8-4198-8757-73746D5D4359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{656333B5-E545-4A26-B1E2-692563517BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Ex.chart1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Ex.chart1" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="75">
   <si>
     <t>1FLC01AIR</t>
   </si>
@@ -181,6 +183,90 @@
   </si>
   <si>
     <t>],</t>
+  </si>
+  <si>
+    <t>ลำดับ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สถานที่ </t>
+  </si>
+  <si>
+    <t>การเชื่อมต่อเครือข่าย</t>
+  </si>
+  <si>
+    <t>1. Breaker LP1</t>
+  </si>
+  <si>
+    <t>ออฟฟิศ WH8</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Breaker LC2 </t>
+  </si>
+  <si>
+    <t>บันไดทางลงห้องประชุมใหญ่</t>
+  </si>
+  <si>
+    <t>3. Breaker LC3</t>
+  </si>
+  <si>
+    <t>ประตูทางเข้าคลังชั้น 3 ( ฝั่งติดกับลิฟท์ขนสินค้า )</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Breaker LC4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ห้องเครื่องชั้น 5 </t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Breaker LC5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ทางขึ้นรถโฟล์คลิฟท์ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Breaker LP6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ออฟฟิศ WH8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Breaker  LC7 </t>
+  </si>
+  <si>
+    <t>ห้องปั๊มน้ำใต้บันได</t>
+  </si>
+  <si>
+    <t>8. Breaker LC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ห้อง Server8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Breaker LC12 </t>
+  </si>
+  <si>
+    <t>Car Park ริมกำแพง ฝั่ง อ.7</t>
+  </si>
+  <si>
+    <t>10. Breaker LC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car Park ฝั่งริมคลอง </t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>MAC</t>
   </si>
 </sst>
 </file>
@@ -188,8 +274,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -209,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +314,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,52 +373,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -332,16 +474,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>693388</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>103591</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>211536</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>129250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>92573</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>218898</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,8 +512,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7220084" y="1246591"/>
-          <a:ext cx="8588144" cy="3608482"/>
+          <a:off x="7909977" y="3073150"/>
+          <a:ext cx="8479009" cy="3608482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,690 +1024,689 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4580401-E20D-47DA-B4AD-6FAF5E313E11}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="15" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="15" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="15" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1577,6 +1718,470 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9327E6-14A4-4427-AFE8-37CB813E4851}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B583FE5F-B53F-4CBA-B8C8-5C844E1FE22A}">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E7" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="27" customFormat="1">
+      <c r="B3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="27" customFormat="1">
+      <c r="B4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="27" customFormat="1">
+      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="27" customFormat="1">
+      <c r="B6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="27" customFormat="1">
+      <c r="B7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="27" customFormat="1">
+      <c r="B8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="27" customFormat="1">
+      <c r="B9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="25" customFormat="1">
+      <c r="B10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="25" customFormat="1">
+      <c r="B11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="25" customFormat="1">
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="25" customFormat="1">
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="25" customFormat="1">
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="25" customFormat="1">
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCFBE62-7CA9-4E0F-81FF-93708C221C6C}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -1586,459 +2191,458 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="20">
+      <c r="B1" s="17">
         <v>44960.999525462961</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>0.41499999999999998</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="17">
         <v>44961.999525462961</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>0.42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="17">
         <v>44962.999525462961</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>44963.999525462961</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>44964.999849537038</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="17">
         <v>44965.999849537038</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>0.44800000000000001</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="17">
         <v>44966.999849537038</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>44967.999849537038</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>0.42</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>44968.999849537038</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>44969.999849537038</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>0.41899999999999998</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>44970.999849537038</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>44971.999849537038</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="17">
         <v>44972.999849537038</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>44973.999849537038</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0.41899999999999998</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="17">
         <v>44974.999849537038</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="17">
         <v>44975.999849537038</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="17">
         <v>44976.999849537038</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>0.41199999999999998</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="17">
         <v>44977.999849537038</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>0.42</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="17">
         <v>44978.999849537038</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>0.41699999999999998</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>44979.999849537038</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="17">
         <v>44980.999849537038</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>0.42099999999999999</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="17">
         <v>44981.999849537038</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>0.41599999999999998</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="17">
         <v>44982.904016203705</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="17">
         <v>44983.999861111108</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>0.41</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="17">
         <v>44984.999861111108</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>0.41099999999999998</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="17">
         <v>44985.999861111108</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>0.41899999999999998</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2049,11 +2653,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F0F1E-7BE0-4990-B3AD-D5A4A9CF3701}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3984EF-9B28-4013-BB85-1D6A4AA084E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2078,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E96136E-3F4F-4282-9D0A-8376674F9D19}">
   <dimension ref="B3:AH23"/>
   <sheetViews>
@@ -2088,7 +2692,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="4.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="9" customWidth="1"/>
     <col min="3" max="33" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2098,677 +2702,676 @@
       </c>
     </row>
     <row r="5" spans="2:33">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
     </row>
     <row r="6" spans="2:33">
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>14</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
     </row>
     <row r="7" spans="2:33">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>11</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="11">
+      <c r="B10" s="9">
         <v>10</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="11">
+      <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
     </row>
     <row r="13" spans="2:33">
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
     </row>
     <row r="14" spans="2:33">
-      <c r="B14" s="11">
+      <c r="B14" s="9">
         <v>6</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
     </row>
     <row r="15" spans="2:33">
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
     </row>
     <row r="16" spans="2:33">
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>4</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
     </row>
     <row r="17" spans="2:34">
-      <c r="B17" s="11">
+      <c r="B17" s="9">
         <v>3</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="2:34">
-      <c r="B18" s="11">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="2:34">
-      <c r="B19" s="11">
+      <c r="B19" s="9">
         <v>1</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
     </row>
     <row r="20" spans="2:34">
-      <c r="B20" s="11">
+      <c r="B20" s="9">
         <v>0</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-    </row>
-    <row r="21" spans="2:34" s="12" customFormat="1">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+    </row>
+    <row r="21" spans="2:34">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21">
         <v>6</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21">
         <v>7</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21">
         <v>8</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21">
         <v>10</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21">
         <v>11</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21">
         <v>12</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21">
         <v>13</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21">
         <v>14</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21">
         <v>15</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21">
         <v>16</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21">
         <v>17</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21">
         <v>18</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21">
         <v>19</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21">
         <v>21</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21">
         <v>22</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21">
         <v>23</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21">
         <v>24</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21">
         <v>25</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21">
         <v>26</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21">
         <v>27</v>
       </c>
-      <c r="AD21" s="12">
+      <c r="AD21">
         <v>28</v>
       </c>
-      <c r="AE21" s="12">
+      <c r="AE21">
         <v>29</v>
       </c>
-      <c r="AF21" s="12">
+      <c r="AF21">
         <v>30</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21">
         <v>31</v>
       </c>
-      <c r="AH21" s="12" t="s">
+      <c r="AH21" t="s">
         <v>37</v>
       </c>
     </row>
